--- a/Data2.xlsx
+++ b/Data2.xlsx
@@ -8,15 +8,17 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\Kuliah\Semester 5\Data Mining\Week 7\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0988D616-1FDC-4AE3-8F0A-2E76146A1322}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{53A74886-5965-4DBD-8B40-25ECE5331020}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11310" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11310" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="150" sheetId="1" r:id="rId1"/>
-    <sheet name="50" sheetId="2" r:id="rId2"/>
-    <sheet name="25" sheetId="3" r:id="rId3"/>
-    <sheet name="100" sheetId="4" r:id="rId4"/>
+    <sheet name="40" sheetId="6" r:id="rId2"/>
+    <sheet name="30" sheetId="5" r:id="rId3"/>
+    <sheet name="50" sheetId="2" r:id="rId4"/>
+    <sheet name="25" sheetId="3" r:id="rId5"/>
+    <sheet name="100" sheetId="4" r:id="rId6"/>
   </sheets>
   <definedNames>
     <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">'150'!#REF!</definedName>
@@ -34,10 +36,6 @@
     </ext>
   </extLst>
 </workbook>
-</file>
-
-<file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main"/>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
@@ -846,7 +844,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:B200"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A190" workbookViewId="0">
+    <sheetView topLeftCell="A190" workbookViewId="0">
       <selection activeCell="G196" sqref="G196"/>
     </sheetView>
   </sheetViews>
@@ -2263,11 +2261,601 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{AC6E7794-FD7A-43A3-A4ED-7BE37FB7EB9F}">
+  <dimension ref="A1:B40"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection sqref="A1:B40"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetData>
+    <row r="1" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A1" s="1">
+        <v>15</v>
+      </c>
+      <c r="B1" s="1">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="2" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A2" s="1">
+        <v>15</v>
+      </c>
+      <c r="B2" s="1">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A3" s="1">
+        <v>16</v>
+      </c>
+      <c r="B3" s="1">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A4" s="1">
+        <v>16</v>
+      </c>
+      <c r="B4" s="1">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="5" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A5" s="1">
+        <v>17</v>
+      </c>
+      <c r="B5" s="1">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="6" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A6" s="1">
+        <v>17</v>
+      </c>
+      <c r="B6" s="1">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="7" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A7" s="1">
+        <v>18</v>
+      </c>
+      <c r="B7" s="1">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="8" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A8" s="1">
+        <v>18</v>
+      </c>
+      <c r="B8" s="1">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="9" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A9" s="1">
+        <v>19</v>
+      </c>
+      <c r="B9" s="1">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="10" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A10" s="1">
+        <v>19</v>
+      </c>
+      <c r="B10" s="1">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="11" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A11" s="1">
+        <v>19</v>
+      </c>
+      <c r="B11" s="1">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="12" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A12" s="1">
+        <v>19</v>
+      </c>
+      <c r="B12" s="1">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="13" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A13" s="1">
+        <v>20</v>
+      </c>
+      <c r="B13" s="1">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="14" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A14" s="1">
+        <v>20</v>
+      </c>
+      <c r="B14" s="1">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="15" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A15" s="1">
+        <v>20</v>
+      </c>
+      <c r="B15" s="1">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="16" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A16" s="1">
+        <v>20</v>
+      </c>
+      <c r="B16" s="1">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="17" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A17" s="1">
+        <v>21</v>
+      </c>
+      <c r="B17" s="1">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="18" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A18" s="1">
+        <v>21</v>
+      </c>
+      <c r="B18" s="1">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="19" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A19" s="1">
+        <v>23</v>
+      </c>
+      <c r="B19" s="1">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="20" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A20" s="1">
+        <v>23</v>
+      </c>
+      <c r="B20" s="1">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="21" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A21" s="1">
+        <v>24</v>
+      </c>
+      <c r="B21" s="1">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="22" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A22" s="1">
+        <v>24</v>
+      </c>
+      <c r="B22" s="1">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="23" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A23" s="1">
+        <v>25</v>
+      </c>
+      <c r="B23" s="1">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="24" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A24" s="1">
+        <v>25</v>
+      </c>
+      <c r="B24" s="1">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="25" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A25" s="1">
+        <v>28</v>
+      </c>
+      <c r="B25" s="1">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="26" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A26" s="1">
+        <v>28</v>
+      </c>
+      <c r="B26" s="1">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="27" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A27" s="1">
+        <v>28</v>
+      </c>
+      <c r="B27" s="1">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="28" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A28" s="1">
+        <v>28</v>
+      </c>
+      <c r="B28" s="1">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="29" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A29" s="1">
+        <v>29</v>
+      </c>
+      <c r="B29" s="1">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="30" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A30" s="1">
+        <v>29</v>
+      </c>
+      <c r="B30" s="1">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="31" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A31" s="1">
+        <v>30</v>
+      </c>
+      <c r="B31" s="1">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="32" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A32" s="1">
+        <v>30</v>
+      </c>
+      <c r="B32" s="1">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="33" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A33" s="1">
+        <v>33</v>
+      </c>
+      <c r="B33" s="1">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="34" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A34" s="1">
+        <v>33</v>
+      </c>
+      <c r="B34" s="1">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="35" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A35" s="1">
+        <v>33</v>
+      </c>
+      <c r="B35" s="1">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="36" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A36" s="1">
+        <v>33</v>
+      </c>
+      <c r="B36" s="1">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="37" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A37" s="1">
+        <v>34</v>
+      </c>
+      <c r="B37" s="1">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="38" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A38" s="1">
+        <v>34</v>
+      </c>
+      <c r="B38" s="1">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="39" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A39" s="1">
+        <v>37</v>
+      </c>
+      <c r="B39" s="1">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="40" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A40" s="1">
+        <v>37</v>
+      </c>
+      <c r="B40" s="1">
+        <v>75</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6B9C7011-86E8-4C98-83E3-3AEAD7CDAF67}">
+  <dimension ref="A1:B30"/>
+  <sheetViews>
+    <sheetView topLeftCell="A10" workbookViewId="0">
+      <selection sqref="A1:B30"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetData>
+    <row r="1" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A1" s="1">
+        <v>15</v>
+      </c>
+      <c r="B1" s="1">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="2" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A2" s="1">
+        <v>15</v>
+      </c>
+      <c r="B2" s="1">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A3" s="1">
+        <v>16</v>
+      </c>
+      <c r="B3" s="1">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A4" s="1">
+        <v>16</v>
+      </c>
+      <c r="B4" s="1">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="5" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A5" s="1">
+        <v>17</v>
+      </c>
+      <c r="B5" s="1">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="6" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A6" s="1">
+        <v>17</v>
+      </c>
+      <c r="B6" s="1">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="7" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A7" s="1">
+        <v>18</v>
+      </c>
+      <c r="B7" s="1">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="8" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A8" s="1">
+        <v>18</v>
+      </c>
+      <c r="B8" s="1">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="9" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A9" s="1">
+        <v>19</v>
+      </c>
+      <c r="B9" s="1">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="10" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A10" s="1">
+        <v>19</v>
+      </c>
+      <c r="B10" s="1">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="11" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A11" s="1">
+        <v>19</v>
+      </c>
+      <c r="B11" s="1">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="12" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A12" s="1">
+        <v>19</v>
+      </c>
+      <c r="B12" s="1">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="13" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A13" s="1">
+        <v>20</v>
+      </c>
+      <c r="B13" s="1">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="14" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A14" s="1">
+        <v>20</v>
+      </c>
+      <c r="B14" s="1">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="15" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A15" s="1">
+        <v>20</v>
+      </c>
+      <c r="B15" s="1">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="16" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A16" s="1">
+        <v>20</v>
+      </c>
+      <c r="B16" s="1">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="17" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A17" s="1">
+        <v>21</v>
+      </c>
+      <c r="B17" s="1">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="18" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A18" s="1">
+        <v>21</v>
+      </c>
+      <c r="B18" s="1">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="19" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A19" s="1">
+        <v>23</v>
+      </c>
+      <c r="B19" s="1">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="20" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A20" s="1">
+        <v>23</v>
+      </c>
+      <c r="B20" s="1">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="21" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A21" s="1">
+        <v>24</v>
+      </c>
+      <c r="B21" s="1">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="22" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A22" s="1">
+        <v>24</v>
+      </c>
+      <c r="B22" s="1">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="23" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A23" s="1">
+        <v>25</v>
+      </c>
+      <c r="B23" s="1">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="24" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A24" s="1">
+        <v>25</v>
+      </c>
+      <c r="B24" s="1">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="25" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A25" s="1">
+        <v>28</v>
+      </c>
+      <c r="B25" s="1">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="26" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A26" s="1">
+        <v>28</v>
+      </c>
+      <c r="B26" s="1">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="27" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A27" s="1">
+        <v>28</v>
+      </c>
+      <c r="B27" s="1">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="28" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A28" s="1">
+        <v>28</v>
+      </c>
+      <c r="B28" s="1">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="29" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A29" s="1">
+        <v>29</v>
+      </c>
+      <c r="B29" s="1">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="30" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A30" s="1">
+        <v>29</v>
+      </c>
+      <c r="B30" s="1">
+        <v>87</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:F169"/>
   <sheetViews>
-    <sheetView topLeftCell="A43" workbookViewId="0">
-      <selection sqref="A1:B50"/>
+    <sheetView topLeftCell="A29" workbookViewId="0">
+      <selection sqref="A1:B40"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -3832,7 +4420,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{10DCA502-B59F-4FF1-AC4F-BAA1C2D59249}">
   <dimension ref="A1:B25"/>
   <sheetViews>
@@ -4047,7 +4635,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0484478E-C8BE-4431-A531-04AD52CB35E6}">
   <dimension ref="A1:B100"/>
   <sheetViews>

--- a/Data2.xlsx
+++ b/Data2.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\Kuliah\Semester 5\Data Mining\Week 7\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{53A74886-5965-4DBD-8B40-25ECE5331020}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{21D236F6-4335-44FA-BEFD-77D3219179E0}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11310" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11310" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="150" sheetId="1" r:id="rId1"/>
@@ -2264,7 +2264,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{AC6E7794-FD7A-43A3-A4ED-7BE37FB7EB9F}">
   <dimension ref="A1:B40"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection sqref="A1:B40"/>
     </sheetView>
   </sheetViews>
@@ -2854,8 +2854,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:F169"/>
   <sheetViews>
-    <sheetView topLeftCell="A29" workbookViewId="0">
-      <selection sqref="A1:B40"/>
+    <sheetView tabSelected="1" topLeftCell="A30" workbookViewId="0">
+      <selection activeCell="E45" sqref="E45"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -3441,10 +3441,10 @@
     </row>
     <row r="49" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A49" s="1">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="B49" s="1">
-        <v>42</v>
+        <v>53</v>
       </c>
       <c r="C49" s="2"/>
       <c r="D49" s="2"/>
@@ -3453,10 +3453,10 @@
     </row>
     <row r="50" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A50" s="1">
-        <v>40</v>
+        <v>42</v>
       </c>
       <c r="B50" s="1">
-        <v>42</v>
+        <v>64</v>
       </c>
       <c r="C50" s="2"/>
       <c r="D50" s="2"/>
